--- a/excel_files/15.1.2.1.xlsx
+++ b/excel_files/15.1.2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -488,7 +488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -497,7 +499,7 @@
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -510,7 +512,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -523,7 +525,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -557,8 +559,11 @@
       <c r="K3" s="3">
         <v>2019</v>
       </c>
+      <c r="L3" s="4">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -590,6 +595,9 @@
         <v>6.51</v>
       </c>
       <c r="K4" s="5">
+        <v>6.53</v>
+      </c>
+      <c r="L4" s="5">
         <v>6.53</v>
       </c>
     </row>

--- a/excel_files/15.1.2.1.xlsx
+++ b/excel_files/15.1.2.1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Площадь ООПТ от всей площади страны</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>Өлкөнүн бүткүл аймагынан ӨКЖ аймактарынын аянты</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
+  </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
   </si>
 </sst>
 </file>
@@ -65,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +129,13 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -168,7 +184,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -202,6 +218,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -486,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -512,101 +534,112 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>2012</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="3">
         <v>2013</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
         <v>2014</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="3">
         <v>2015</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H4" s="3">
         <v>2016</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I4" s="3">
         <v>2017</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J4" s="4">
         <v>2018</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K4" s="3">
         <v>2019</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L4" s="4">
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="5">
         <v>4.4800000000000004</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="5">
         <v>4.58</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F5" s="5">
         <v>4.58</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G5" s="5">
         <v>4.6900000000000004</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H5" s="5">
         <v>4.84</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I5" s="5">
         <v>4.84</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J5" s="5">
         <v>6.51</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K5" s="5">
         <v>6.53</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L5" s="5">
         <v>6.53</v>
       </c>
     </row>
-    <row r="20" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M20" s="8"/>
-      <c r="P20" s="9"/>
+    <row r="21" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M21" s="8"/>
+      <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M22" s="8"/>
+    <row r="23" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_files/15.1.2.1.xlsx
+++ b/excel_files/15.1.2.1.xlsx
@@ -511,7 +511,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -534,7 +534,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -545,7 +545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -558,7 +558,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -595,8 +595,11 @@
       <c r="L4" s="4">
         <v>2020</v>
       </c>
+      <c r="M4" s="4">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -631,6 +634,9 @@
         <v>6.53</v>
       </c>
       <c r="L5" s="5">
+        <v>6.53</v>
+      </c>
+      <c r="M5" s="5">
         <v>6.53</v>
       </c>
     </row>

--- a/excel_files/15.1.2.1.xlsx
+++ b/excel_files/15.1.2.1.xlsx
@@ -510,9 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -521,7 +519,7 @@
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -534,7 +532,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -545,7 +543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -558,7 +556,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -598,8 +596,14 @@
       <c r="M4" s="4">
         <v>2021</v>
       </c>
+      <c r="N4" s="4">
+        <v>2022</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -637,6 +641,12 @@
         <v>6.53</v>
       </c>
       <c r="M5" s="5">
+        <v>6.53</v>
+      </c>
+      <c r="N5" s="5">
+        <v>6.53</v>
+      </c>
+      <c r="O5" s="5">
         <v>6.53</v>
       </c>
     </row>
